--- a/EA01-01.xlsx
+++ b/EA01-01.xlsx
@@ -1144,7 +1144,7 @@
       </c>
       <c r="M3" s="18">
         <f>NOW()</f>
-        <v>44556.40311</v>
+        <v>44564.72584</v>
       </c>
       <c r="N3" s="19">
         <v>10.0</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C11" s="39">
         <f t="shared" ref="C11:C63" si="2">TODAY()</f>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>25</v>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C12" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>26</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C13" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>27</v>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C14" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>29</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="C15" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>30</v>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C16" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>31</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="C17" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>32</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C18" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>33</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C19" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>34</v>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C20" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>35</v>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="C21" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>36</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C22" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>37</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C23" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>38</v>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C24" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>39</v>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C25" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>40</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="C26" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>41</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C27" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>42</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="C28" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>43</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C29" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>44</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="C30" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>45</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C31" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>46</v>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="C32" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>47</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C33" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>48</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="C34" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>49</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C35" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>50</v>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C36" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>51</v>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C37" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>52</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="C38" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>53</v>
@@ -2774,7 +2774,7 @@
       <c r="B39" s="33"/>
       <c r="C39" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>54</v>
@@ -2821,7 +2821,7 @@
       <c r="B40" s="33"/>
       <c r="C40" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>55</v>
@@ -2868,7 +2868,7 @@
       <c r="B41" s="33"/>
       <c r="C41" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>56</v>
@@ -2915,7 +2915,7 @@
       <c r="B42" s="33"/>
       <c r="C42" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>57</v>
@@ -2962,7 +2962,7 @@
       <c r="B43" s="33"/>
       <c r="C43" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>58</v>
@@ -3009,7 +3009,7 @@
       <c r="B44" s="33"/>
       <c r="C44" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>59</v>
@@ -3056,7 +3056,7 @@
       <c r="B45" s="33"/>
       <c r="C45" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>60</v>
@@ -3103,7 +3103,7 @@
       <c r="B46" s="33"/>
       <c r="C46" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>61</v>
@@ -3150,7 +3150,7 @@
       <c r="B47" s="33"/>
       <c r="C47" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>62</v>
@@ -3197,7 +3197,7 @@
       <c r="B48" s="33"/>
       <c r="C48" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>63</v>
@@ -3244,7 +3244,7 @@
       <c r="B49" s="33"/>
       <c r="C49" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>64</v>
@@ -3291,7 +3291,7 @@
       <c r="B50" s="33"/>
       <c r="C50" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>65</v>
@@ -3338,7 +3338,7 @@
       <c r="B51" s="33"/>
       <c r="C51" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>66</v>
@@ -3385,7 +3385,7 @@
       <c r="B52" s="33"/>
       <c r="C52" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>67</v>
@@ -3432,7 +3432,7 @@
       <c r="B53" s="33"/>
       <c r="C53" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>68</v>
@@ -3479,7 +3479,7 @@
       <c r="B54" s="33"/>
       <c r="C54" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D54" s="40" t="s">
         <v>69</v>
@@ -3526,7 +3526,7 @@
       <c r="B55" s="33"/>
       <c r="C55" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>70</v>
@@ -3573,7 +3573,7 @@
       <c r="B56" s="33"/>
       <c r="C56" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>71</v>
@@ -3620,7 +3620,7 @@
       <c r="B57" s="33"/>
       <c r="C57" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D57" s="40" t="s">
         <v>72</v>
@@ -3667,7 +3667,7 @@
       <c r="B58" s="33"/>
       <c r="C58" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D58" s="40" t="s">
         <v>73</v>
@@ -3714,7 +3714,7 @@
       <c r="B59" s="33"/>
       <c r="C59" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D59" s="40" t="s">
         <v>74</v>
@@ -3761,7 +3761,7 @@
       <c r="B60" s="33"/>
       <c r="C60" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D60" s="40" t="s">
         <v>75</v>
@@ -3808,7 +3808,7 @@
       <c r="B61" s="33"/>
       <c r="C61" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D61" s="40" t="s">
         <v>76</v>
@@ -3855,7 +3855,7 @@
       <c r="B62" s="33"/>
       <c r="C62" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D62" s="40" t="s">
         <v>77</v>
@@ -3902,7 +3902,7 @@
       <c r="B63" s="33"/>
       <c r="C63" s="39">
         <f t="shared" si="2"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D63" s="40" t="s">
         <v>78</v>
@@ -30311,7 +30311,7 @@
       </c>
       <c r="M3" s="47">
         <f>TODAY()</f>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -30481,7 +30481,7 @@
       </c>
       <c r="C8" s="39">
         <f t="shared" ref="C8:C56" si="1">TODAY()</f>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>82</v>
@@ -30530,7 +30530,7 @@
       </c>
       <c r="C9" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>84</v>
@@ -30580,7 +30580,7 @@
       </c>
       <c r="C10" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>86</v>
@@ -30630,7 +30630,7 @@
       </c>
       <c r="C11" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>88</v>
@@ -30680,7 +30680,7 @@
       </c>
       <c r="C12" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>90</v>
@@ -30730,7 +30730,7 @@
       </c>
       <c r="C13" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>92</v>
@@ -30780,7 +30780,7 @@
       </c>
       <c r="C14" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>93</v>
@@ -30830,7 +30830,7 @@
       </c>
       <c r="C15" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>94</v>
@@ -30880,7 +30880,7 @@
       </c>
       <c r="C16" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>96</v>
@@ -30930,7 +30930,7 @@
       </c>
       <c r="C17" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>98</v>
@@ -30980,7 +30980,7 @@
       </c>
       <c r="C18" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>100</v>
@@ -31030,7 +31030,7 @@
       </c>
       <c r="C19" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>102</v>
@@ -31080,7 +31080,7 @@
       </c>
       <c r="C20" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>103</v>
@@ -31130,7 +31130,7 @@
       </c>
       <c r="C21" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>105</v>
@@ -31180,7 +31180,7 @@
       </c>
       <c r="C22" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>107</v>
@@ -31230,7 +31230,7 @@
       </c>
       <c r="C23" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>109</v>
@@ -31280,7 +31280,7 @@
       </c>
       <c r="C24" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>111</v>
@@ -31330,7 +31330,7 @@
       </c>
       <c r="C25" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>113</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="C26" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>114</v>
@@ -31430,7 +31430,7 @@
       </c>
       <c r="C27" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>116</v>
@@ -31480,7 +31480,7 @@
       </c>
       <c r="C28" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>118</v>
@@ -31530,7 +31530,7 @@
       </c>
       <c r="C29" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>120</v>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="C30" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>122</v>
@@ -31630,7 +31630,7 @@
       </c>
       <c r="C31" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>53</v>
@@ -31678,7 +31678,7 @@
       <c r="B32" s="33"/>
       <c r="C32" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>125</v>
@@ -31726,7 +31726,7 @@
       <c r="B33" s="33"/>
       <c r="C33" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>127</v>
@@ -31774,7 +31774,7 @@
       <c r="B34" s="33"/>
       <c r="C34" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>129</v>
@@ -31822,7 +31822,7 @@
       <c r="B35" s="33"/>
       <c r="C35" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>131</v>
@@ -31870,7 +31870,7 @@
       <c r="B36" s="33"/>
       <c r="C36" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>133</v>
@@ -31918,7 +31918,7 @@
       <c r="B37" s="33"/>
       <c r="C37" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>135</v>
@@ -31966,7 +31966,7 @@
       <c r="B38" s="33"/>
       <c r="C38" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>137</v>
@@ -32014,7 +32014,7 @@
       <c r="B39" s="33"/>
       <c r="C39" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>139</v>
@@ -32062,7 +32062,7 @@
       <c r="B40" s="33"/>
       <c r="C40" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>62</v>
@@ -32110,7 +32110,7 @@
       <c r="B41" s="33"/>
       <c r="C41" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>63</v>
@@ -32158,7 +32158,7 @@
       <c r="B42" s="33"/>
       <c r="C42" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>64</v>
@@ -32206,7 +32206,7 @@
       <c r="B43" s="33"/>
       <c r="C43" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>65</v>
@@ -32254,7 +32254,7 @@
       <c r="B44" s="33"/>
       <c r="C44" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>66</v>
@@ -32302,7 +32302,7 @@
       <c r="B45" s="33"/>
       <c r="C45" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>67</v>
@@ -32350,7 +32350,7 @@
       <c r="B46" s="33"/>
       <c r="C46" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>68</v>
@@ -32398,7 +32398,7 @@
       <c r="B47" s="33"/>
       <c r="C47" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>69</v>
@@ -32446,7 +32446,7 @@
       <c r="B48" s="33"/>
       <c r="C48" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>70</v>
@@ -32494,7 +32494,7 @@
       <c r="B49" s="33"/>
       <c r="C49" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>71</v>
@@ -32542,7 +32542,7 @@
       <c r="B50" s="33"/>
       <c r="C50" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>72</v>
@@ -32590,7 +32590,7 @@
       <c r="B51" s="33"/>
       <c r="C51" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>73</v>
@@ -32638,7 +32638,7 @@
       <c r="B52" s="33"/>
       <c r="C52" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>74</v>
@@ -32686,7 +32686,7 @@
       <c r="B53" s="33"/>
       <c r="C53" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>75</v>
@@ -32734,7 +32734,7 @@
       <c r="B54" s="33"/>
       <c r="C54" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D54" s="40" t="s">
         <v>76</v>
@@ -32782,7 +32782,7 @@
       <c r="B55" s="33"/>
       <c r="C55" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>146</v>
@@ -32830,7 +32830,7 @@
       <c r="B56" s="33"/>
       <c r="C56" s="39">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44564</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>147</v>
